--- a/data/dividends_info_20260209.xlsx
+++ b/data/dividends_info_20260209.xlsx
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>22.42000007629395</v>
+        <v>22.5</v>
       </c>
       <c r="I2" t="n">
-        <v>3.523639595502571</v>
+        <v>3.511111111111112</v>
       </c>
       <c r="J2" t="n">
         <v>98</v>
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5.966000080108643</v>
+        <v>6.048999786376953</v>
       </c>
       <c r="I3" t="n">
-        <v>3.184713333033345</v>
+        <v>3.141015154735201</v>
       </c>
       <c r="J3" t="n">
         <v>98</v>
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6.965000152587891</v>
+        <v>6.914999961853027</v>
       </c>
       <c r="I5" t="n">
-        <v>7.178750740073162</v>
+        <v>7.230658029765396</v>
       </c>
       <c r="J5" t="n">
         <v>70</v>
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>12.84000015258789</v>
+        <v>12.92000007629395</v>
       </c>
       <c r="I6" t="n">
-        <v>4.20560742665695</v>
+        <v>4.179566538786717</v>
       </c>
       <c r="J6" t="n">
         <v>70</v>
@@ -763,10 +763,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>24.88999938964844</v>
+        <v>27.31999969482422</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3615910092686877</v>
+        <v>0.3294289934309572</v>
       </c>
       <c r="J7" t="n">
         <v>42</v>
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>57.84999847412109</v>
+        <v>58.40000152587891</v>
       </c>
       <c r="I8" t="n">
-        <v>1.123595535254464</v>
+        <v>1.113013669549245</v>
       </c>
       <c r="J8" t="n">
         <v>14</v>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.919999957084656</v>
+        <v>1.809999942779541</v>
       </c>
       <c r="I9" t="n">
-        <v>3.125000069849194</v>
+        <v>3.314917231868003</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.2129999995231628</v>
+        <v>0.2169999927282333</v>
       </c>
       <c r="I10" t="n">
-        <v>28.16901414756823</v>
+        <v>27.64977051180958</v>
       </c>
       <c r="J10" t="n">
         <v>-7</v>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9.477999687194824</v>
+        <v>9.494999885559082</v>
       </c>
       <c r="I11" t="n">
-        <v>2.426672373821025</v>
+        <v>2.422327570006676</v>
       </c>
       <c r="J11" t="n">
         <v>-21</v>
@@ -998,10 +998,10 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5.967999935150146</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="I12" t="n">
-        <v>2.024128708321791</v>
+        <v>2.023450657376356</v>
       </c>
       <c r="J12" t="n">
         <v>-21</v>
@@ -1021,7 +1021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C157"/>
+  <dimension ref="A1:C167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1933,7 +1933,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Unipol S.p.A.</t>
+          <t>ELES S.p.A.</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1943,14 +1943,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ELES S.p.A.</t>
+          <t>ESAUTOMOTION S.p.A.</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1967,7 +1967,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ESAUTOMOTION S.p.A.</t>
+          <t>Unipol S.p.A.</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1977,14 +1977,14 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ENEL S.p.A.</t>
+          <t>Matica Fintec S.p.A.</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1994,14 +1994,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>GREEN OLEO S.p.A</t>
+          <t>MEDIOLANUM GESTIONE FONDI SGR p.A.</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2011,14 +2011,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Annual Report</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Haiki+ S.p.A.</t>
+          <t>Unicredit S.p.A.</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2028,14 +2028,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MEDIOLANUM GESTIONE FONDI SGR p.A.</t>
+          <t>GREEN OLEO S.p.A</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2045,14 +2045,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Matica Fintec S.p.A.</t>
+          <t>ENEL S.p.A.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2062,14 +2062,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Unicredit S.p.A.</t>
+          <t>Haiki+ S.p.A.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2079,14 +2079,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Leonardo S.p.A.</t>
+          <t>CASTELLO SGR S.p.A.</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2096,14 +2096,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Annual Report</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TELECOM ITALIA S.p.A.</t>
+          <t>Farmacosmo S.p.A.</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2113,14 +2113,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SAIPEM S.p.A.</t>
+          <t>Ferretti S.p.A.</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2137,7 +2137,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Industrie De Nora S.p.A.</t>
+          <t>Impianti S.p.A.</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2154,7 +2154,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CASTELLO SGR S.p.A.</t>
+          <t>Industrie De Nora S.p.A.</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2164,14 +2164,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Ferretti S.p.A.</t>
+          <t>Leonardo S.p.A.</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2188,7 +2188,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Farmacosmo S.p.A.</t>
+          <t>SAIPEM S.p.A.</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2198,14 +2198,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Impianti S.p.A.</t>
+          <t>TELECOM ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2222,7 +2222,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Datrix S.p.A.</t>
+          <t>SAIPEM S.p.A.</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2232,14 +2232,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>Prysmian S.p.A.</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2249,14 +2249,14 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Pirelli &amp; C. S.p.A.</t>
+          <t>Poste Italiane S.p.A.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2273,7 +2273,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Poste Italiane S.p.A.</t>
+          <t>Datrix S.p.A.</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2290,7 +2290,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Prysmian S.p.A.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2300,14 +2300,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SAIPEM S.p.A.</t>
+          <t>Pirelli &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2317,14 +2317,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Poste Italiane S.p.A.</t>
+          <t>Pozzi Milano S.p.A.</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2334,7 +2334,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Pozzi Milano S.p.A.</t>
+          <t>Poste Italiane S.p.A.</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -2443,7 +2443,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>Intesa Sanpaolo S.p.A.</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2453,14 +2453,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Intesa Sanpaolo S.p.A.</t>
+          <t>IGD SIIQ S.p.A.</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2477,7 +2477,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>IGD SIIQ S.p.A.</t>
+          <t>I.CO.P. S.p.A. Società Benefit</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2494,7 +2494,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>I.CO.P. S.p.A. Società Benefit</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2504,14 +2504,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>JUVENTUS F.C. S.p.A.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2521,14 +2521,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>Dedem S.p.A.</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2538,14 +2538,14 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Dedem S.p.A.</t>
+          <t>JUVENTUS F.C. S.p.A.</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2555,14 +2555,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Autostrade Meridionali S.p.A.</t>
+          <t>OSAI Automation System S.p.A.</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2572,14 +2572,14 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>I GRANDI VIAGGI S.p.A.</t>
+          <t>Autostrade Meridionali S.p.A.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2589,14 +2589,14 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>OSAI Automation System S.p.A.</t>
+          <t>I GRANDI VIAGGI S.p.A.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2732,7 +2732,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Ariston Holding N.V.</t>
+          <t>Kruso Kapital S.p.A.</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2749,7 +2749,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Ariston Holding N.V.</t>
+          <t>Italgas S.p.A.</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2759,14 +2759,14 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Banco BPM S.p.A.</t>
+          <t>FinecoBank S.p.A.</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2783,7 +2783,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>FinecoBank S.p.A.</t>
+          <t>Lottomatica Group S.p.A.</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2793,14 +2793,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Italgas S.p.A.</t>
+          <t>Ariston Holding N.V.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2810,14 +2810,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Kruso Kapital S.p.A.</t>
+          <t>Ariston Holding N.V.</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2834,7 +2834,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Lottomatica Group S.p.A.</t>
+          <t>Banco BPM S.p.A.</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2844,14 +2844,14 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Nexi S.p.A.</t>
+          <t>INTERCOS S.p.A.</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2861,14 +2861,14 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Masi Agricola S.p.A.</t>
+          <t>INTERCOS S.p.A.</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2885,7 +2885,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>MAIRE S.p.A.</t>
+          <t>Italgas S.p.A.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2895,14 +2895,14 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>MAIRE S.p.A.</t>
+          <t>Nexi S.p.A.</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2912,14 +2912,14 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Italgas S.p.A.</t>
+          <t>MAIRE S.p.A.</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2936,7 +2936,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>INTERCOS S.p.A.</t>
+          <t>MAIRE S.p.A.</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2953,7 +2953,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Snam S.p.A.</t>
+          <t>Masi Agricola S.p.A.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2970,7 +2970,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>FinecoBank S.p.A.</t>
+          <t>Snam S.p.A.</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -3072,7 +3072,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>INTERCOS S.p.A.</t>
+          <t>FinecoBank S.p.A.</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3089,7 +3089,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Nexi S.p.A.</t>
+          <t>AZIMUT HOLDING S.p.A.</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3099,14 +3099,14 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
+          <t>ASCOPIAVE S.p.A.</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3116,14 +3116,14 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ITALMOBILIARE S.p.A.</t>
+          <t>ASCOPIAVE S.p.A.</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3157,7 +3157,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>EUROCOMMERCIAL PROPERTIES N.V.</t>
+          <t>ITALMOBILIARE S.p.A.</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3167,14 +3167,14 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>AZIMUT HOLDING S.p.A.</t>
+          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3191,7 +3191,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ASCOPIAVE S.p.A.</t>
+          <t>Nexi S.p.A.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3208,7 +3208,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ASCOPIAVE S.p.A.</t>
+          <t>EUROCOMMERCIAL PROPERTIES N.V.</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3218,7 +3218,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -3252,36 +3252,36 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Banca Popolare di Sondrio S.p.A.</t>
+          <t>Snam S.p.A.</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2026-03-10</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>CAREL INDUSTRIES S.p.A.</t>
+          <t>Tinexta S.p.A.</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2026-03-10</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3293,12 +3293,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>RT&amp;L S.P.A.</t>
+          <t>BANCA SISTEMA S.p.A.</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2026-03-10</t>
+          <t>2026-03-06</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3310,12 +3310,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SAIPEM S.p.A.</t>
+          <t>BEEWIZE</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2026-03-10</t>
+          <t>2026-03-06</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3327,12 +3327,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Toscana Aeroporti S.p.A.</t>
+          <t>CALTAGIRONE EDITORE S.p.A.</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2026-03-10</t>
+          <t>2026-03-09</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3344,46 +3344,46 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>TESMEC S.p.A.</t>
+          <t>CIR S.p.A. - COMPAGNIE INDUSTRIALI RIUNITE</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-09</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ERG S.p.A.</t>
+          <t>DIGITAL BROS S.p.A.</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-09</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>Sanlorenzo S.p.A.</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-09</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3395,12 +3395,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>GEOX S.p.A.</t>
+          <t>VALSOIA S.p.A.</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-09</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3412,29 +3412,29 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>GEOX S.p.A.</t>
+          <t>SAIPEM S.p.A.</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-10</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Leonardo S.p.A.</t>
+          <t>Toscana Aeroporti S.p.A.</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-10</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3446,29 +3446,29 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>SALVATORE FERRAGAMO S.p.A.</t>
+          <t>RT&amp;L S.P.A.</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-10</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SALVATORE FERRAGAMO S.p.A.</t>
+          <t>CAREL INDUSTRIES S.p.A.</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-10</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -3480,12 +3480,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Cementir Holding N.V.</t>
+          <t>Banca Popolare di Sondrio S.p.A.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-10</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -3497,24 +3497,24 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>Banca Monte dei Paschi di Siena S.p.A.</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-10</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>SYS-DAT S.p.A.</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3531,7 +3531,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>TELECOM ITALIA S.p.A.</t>
+          <t>TESMEC S.p.A.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3541,14 +3541,14 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>SALVATORE FERRAGAMO S.p.A.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3565,7 +3565,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>WIIT S.p.A.</t>
+          <t>TELECOM ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3575,14 +3575,14 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>SYS-DAT S.p.A.</t>
+          <t>SALVATORE FERRAGAMO S.p.A.</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3592,14 +3592,14 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>WEBUILD S.p.A.</t>
+          <t>TESMEC S.p.A.</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3616,7 +3616,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>UNIDATA S.p.A.</t>
+          <t>GEOX S.p.A.</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3626,14 +3626,14 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>UNIDATA S.p.A.</t>
+          <t>GEOX S.p.A.</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3643,14 +3643,14 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>TESMEC S.p.A.</t>
+          <t>Cementir Holding N.V.</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3667,7 +3667,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Bper Banca S.P.A.</t>
+          <t>ERG S.p.A.</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3684,15 +3684,185 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2026-03-11</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Basic Net S.p.A.</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2026-03-11</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Analyst Presentation</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Basic Net S.p.A.</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2026-03-11</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Bper Banca S.P.A.</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2026-03-11</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
           <t>WIIT S.p.A.</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B161" t="inlineStr">
         <is>
           <t>2026-03-11</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Analyst Presentation</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>WIIT S.p.A.</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2026-03-11</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>WEBUILD S.p.A.</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2026-03-11</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>UNIDATA S.p.A.</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2026-03-11</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>UNIDATA S.p.A.</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2026-03-11</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Analyst Presentation</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Leonardo S.p.A.</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2026-03-11</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Esprinet S.p.A.</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2026-03-11</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
         <is>
           <t>Bod Annual Report</t>
         </is>
@@ -3709,151 +3879,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>stock_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ticker</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>detachment_date</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>payment_date</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>last_close</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>dividend</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>currency</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ratio</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>miss_days</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>is_opportunity</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Banco BPM S.p.A.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>IT0005218380</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2026-04-20 00:00:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2026-04-22</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>12.84000015258789</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>EURO</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4.20560742665695</v>
-      </c>
-      <c r="I2" t="n">
-        <v>70</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>FinecoBank S.p.A.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>IT0000072170</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2026-05-18 00:00:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2026-05-20</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>22.42000007629395</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>EURO</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3.523639595502571</v>
-      </c>
-      <c r="I3" t="n">
-        <v>98</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -3864,423 +3897,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Stock</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ASCOPIAVE S.p.A.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2026-02-12</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-03-11</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Basic Net S.p.A.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-03-11</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Basic Net S.p.A.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-03-11</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Bper Banca S.P.A.</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2026-03-11</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Cementir Holding N.V.</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2026-03-11</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ERG S.p.A.</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2026-03-11</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Esprinet S.p.A.</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2026-03-11</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>GEOX S.p.A.</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2026-03-11</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>GEOX S.p.A.</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2026-03-11</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Leonardo S.p.A.</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2026-03-11</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>SALVATORE FERRAGAMO S.p.A.</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2026-03-11</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>SALVATORE FERRAGAMO S.p.A.</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2026-03-11</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>SYS-DAT S.p.A.</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2026-03-11</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Sanlorenzo S.p.A.</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2026-02-13</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>TELECOM ITALIA S.p.A.</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2026-03-11</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>TESMEC S.p.A.</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2026-03-11</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>TESMEC S.p.A.</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2026-03-11</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>UNIDATA S.p.A.</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2026-03-11</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>UNIDATA S.p.A.</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2026-03-11</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>WEBUILD S.p.A.</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2026-03-11</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>WIIT S.p.A.</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2026-03-11</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>WIIT S.p.A.</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2026-03-11</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>